--- a/en/downloads/data-excel/8.10.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>(в процентах)</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Село</t>
   </si>
   <si>
-    <t>Пол</t>
-  </si>
-  <si>
     <t>Мужской</t>
   </si>
   <si>
@@ -56,18 +53,12 @@
     <t>Область</t>
   </si>
   <si>
-    <t>Возраст</t>
-  </si>
-  <si>
     <t>Молодёжь, 15-28 лет</t>
   </si>
   <si>
     <t>Взрослое население трудоспособного возраста</t>
   </si>
   <si>
-    <t>Образование</t>
-  </si>
-  <si>
     <t>Начальное и ниже</t>
   </si>
   <si>
@@ -143,18 +134,12 @@
     <t>rural</t>
   </si>
   <si>
-    <t>Жынысы</t>
-  </si>
-  <si>
     <t>Эркектер</t>
   </si>
   <si>
     <t>Аялдар</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
     <t>Аймак</t>
   </si>
   <si>
-    <t>Territory</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -248,21 +230,12 @@
     <t>Osh city</t>
   </si>
   <si>
-    <t>Жаш курагы</t>
-  </si>
-  <si>
     <t>15-28 жаштагы жаштар</t>
   </si>
   <si>
     <t>Старше трудоспособного возраста</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Билими</t>
-  </si>
-  <si>
     <t>Мектепке чейинки же жок / Башталгыч</t>
   </si>
   <si>
@@ -333,12 +306,60 @@
   </si>
   <si>
     <t>Эмгекке жарактуу жаштан жогорку калктын саны</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>By territory</t>
+  </si>
+  <si>
+    <t>By age</t>
+  </si>
+  <si>
+    <t>By education</t>
+  </si>
+  <si>
+    <t>Initial and below</t>
+  </si>
+  <si>
+    <t>Basic general</t>
+  </si>
+  <si>
+    <t>Average general</t>
+  </si>
+  <si>
+    <t>Vocational secondary, general</t>
+  </si>
+  <si>
+    <t>Professional higher</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>Жаш курагы боюнча</t>
+  </si>
+  <si>
+    <t>Билими боюнча</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t>По возрасту</t>
+  </si>
+  <si>
+    <t>По образованию</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +498,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -495,7 +516,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -525,6 +545,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -8350,611 +8382,696 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>2018</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>2019</v>
       </c>
+      <c r="F4" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13">
+        <v>24.4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>32.172358685186744</v>
+      </c>
+      <c r="F5" s="20">
+        <v>35.908367432390172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14">
+        <v>28.1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>36.79711906049684</v>
+      </c>
+      <c r="F7" s="22">
+        <v>38.037471336879918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="14">
-        <v>24.4</v>
-      </c>
-      <c r="E5" s="14">
-        <v>32.172358685186744</v>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14">
+        <v>22.2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>29.421488728670735</v>
+      </c>
+      <c r="F8" s="22">
+        <v>34.606561282937008</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="E10" s="14">
+        <v>30.211973610676601</v>
+      </c>
+      <c r="F10" s="22">
+        <v>33.229388395505211</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="15">
-        <v>28.1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>36.79711906049684</v>
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="14">
+        <v>25.2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>33.807907890915992</v>
+      </c>
+      <c r="F11" s="22">
+        <v>38.177301011395421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="15">
-        <v>22.2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>29.421488728670735</v>
-      </c>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="22"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="E13" s="14">
+        <v>20.274736118054363</v>
+      </c>
+      <c r="F13" s="22">
+        <v>26.775957440605431</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="15">
-        <v>23.4</v>
-      </c>
-      <c r="E10" s="15">
-        <v>30.211973610676601</v>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>26.361287264420636</v>
+      </c>
+      <c r="F14" s="22">
+        <v>26.539366314899116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="15">
-        <v>25.2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>33.807907890915992</v>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E15" s="14">
+        <v>9.9730738786285968</v>
+      </c>
+      <c r="F15" s="22">
+        <v>27.245676841206855</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="15">
-        <v>11.9</v>
-      </c>
-      <c r="E13" s="15">
-        <v>20.274736118054363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="15">
-        <v>13.1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>26.361287264420636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E15" s="15">
-        <v>9.9730738786285968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>35.299999999999997</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>43.200633690782439</v>
+      </c>
+      <c r="F16" s="22">
+        <v>40.824543038051686</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="A17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14">
         <v>30.7</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>37.460736598863278</v>
+      </c>
+      <c r="F17" s="22">
+        <v>43.889457566749421</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="A18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>32.044373123720973</v>
+      </c>
+      <c r="F18" s="22">
+        <v>33.277755977391323</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="A19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14">
         <v>35.9</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>41.21346354854434</v>
+      </c>
+      <c r="F19" s="22">
+        <v>43.885817661904994</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="A20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="14">
         <v>30.8</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>34.961164011412258</v>
+      </c>
+      <c r="F20" s="22">
+        <v>38.853902927830582</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="A21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="14">
         <v>23.3</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>40.128113657196543</v>
+      </c>
+      <c r="F21" s="22">
+        <v>31.952316608549769</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="A23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="14">
         <v>12.7</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>16.408319566373308</v>
+      </c>
+      <c r="F23" s="22">
+        <v>18.496813928180543</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="A24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="14">
         <v>26.3</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>33.477733177366297</v>
+      </c>
+      <c r="F24" s="22">
+        <v>37.033088177002874</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="A25" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="14">
         <v>39.5</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>55.192243744535141</v>
+      </c>
+      <c r="F25" s="22">
+        <v>59.619519274425237</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="A27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="14">
         <v>17</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>25.253959375234832</v>
+      </c>
+      <c r="F27" s="22">
+        <v>24.636899175670234</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="A28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="14">
         <v>10.8</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>15.506281254828457</v>
+      </c>
+      <c r="F28" s="22">
+        <v>18.134313129213993</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="15">
+      <c r="A29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="14">
         <v>18.2</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>25.60731048820081</v>
+      </c>
+      <c r="F29" s="22">
+        <v>29.738080926096469</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="A30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="14">
         <v>32.1</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>39.576314116351028</v>
+      </c>
+      <c r="F30" s="22">
+        <v>44.647996803123462</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="A31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="14">
         <v>44.1</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>54.556962383083601</v>
+      </c>
+      <c r="F31" s="22">
+        <v>57.646115925877957</v>
       </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="A33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="10">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G29</f>
         <v>12.28586899480047</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>19.928328804527261</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="24">
+        <v>23.264547350491039</v>
+      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="A34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="10">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G30</f>
         <v>20.108218753144943</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>29.541730495824083</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="24">
+        <v>35.464543119212848</v>
+      </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="A35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="10">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G31</f>
         <v>23.688371085673879</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>31.242776068249537</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="24">
+        <v>39.252696413189447</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="A36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G32</f>
         <v>28.405544890163778</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>36.901645917041535</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="24">
+        <v>39.606035508230384</v>
+      </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="A37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="11">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G33</f>
         <v>32.674185644974685</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>38.816775959727927</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="25">
+        <v>46.669807444397421</v>
+      </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>97</v>
+      <c r="A38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/8.10.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.xlsx
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +386,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -494,11 +487,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -512,11 +505,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -534,15 +524,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -8374,7 +8364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8382,7 +8374,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8393,684 +8385,769 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2018</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2019</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>2020</v>
       </c>
+      <c r="G4" s="11">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>24.4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>32.172358685186744</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>35.908367432390172</v>
       </c>
+      <c r="G5" s="19">
+        <v>36.349477845730696</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>28.1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>36.79711906049684</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>38.037471336879918</v>
       </c>
+      <c r="G7" s="21">
+        <v>40.24257514844215</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>22.2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>29.421488728670735</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>34.606561282937008</v>
       </c>
+      <c r="G8" s="21">
+        <v>33.921336844109675</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>23.4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>30.211973610676601</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>33.229388395505211</v>
       </c>
+      <c r="G10" s="21">
+        <v>33.726935029287773</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>25.2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>33.807907890915992</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>38.177301011395421</v>
       </c>
+      <c r="G11" s="21">
+        <v>38.549213750749423</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>11.9</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>20.274736118054363</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>26.775957440605431</v>
       </c>
+      <c r="G13" s="21">
+        <v>30.726355037053551</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>13.1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>26.361287264420636</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>26.539366314899116</v>
       </c>
+      <c r="G14" s="21">
+        <v>24.114348024597405</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>9.9730738786285968</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>27.245676841206855</v>
       </c>
+      <c r="G15" s="21">
+        <v>32.264319710486305</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>35.299999999999997</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>43.200633690782439</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>40.824543038051686</v>
+      </c>
+      <c r="G16" s="21">
+        <v>55.72775023394189</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>30.7</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>37.460736598863278</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>43.889457566749421</v>
+      </c>
+      <c r="G17" s="21">
+        <v>42.653948422610604</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>32.044373123720973</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>33.277755977391323</v>
+      </c>
+      <c r="G18" s="21">
+        <v>32.640370268550591</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>35.9</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>41.21346354854434</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>43.885817661904994</v>
+      </c>
+      <c r="G19" s="21">
+        <v>38.11437546852995</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>30.8</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>34.961164011412258</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>38.853902927830582</v>
+      </c>
+      <c r="G20" s="21">
+        <v>42.722516786024322</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>23.3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>40.128113657196543</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>31.952316608549769</v>
+      </c>
+      <c r="G21" s="21">
+        <v>33.536910409231567</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="21"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>12.7</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>16.408319566373308</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>18.496813928180543</v>
+      </c>
+      <c r="G23" s="21">
+        <v>16.180533854020734</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>26.3</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>33.477733177366297</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>37.033088177002874</v>
+      </c>
+      <c r="G24" s="21">
+        <v>37.684304521197163</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>39.5</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>55.192243744535141</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>59.619519274425237</v>
+      </c>
+      <c r="G25" s="21">
+        <v>63.542408521816817</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>17</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>25.253959375234832</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>24.636899175670234</v>
+      </c>
+      <c r="G27" s="21">
+        <v>19.57846532512054</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>10.8</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>15.506281254828457</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>18.134313129213993</v>
+      </c>
+      <c r="G28" s="21">
+        <v>17.192246662674318</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>18.2</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>25.60731048820081</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>29.738080926096469</v>
+      </c>
+      <c r="G29" s="21">
+        <v>29.859967645408769</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>32.1</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>39.576314116351028</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>44.647996803123462</v>
+      </c>
+      <c r="G30" s="21">
+        <v>45.738415886705035</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>44.1</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>54.556962383083601</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>57.646115925877957</v>
+      </c>
+      <c r="G31" s="21">
+        <v>60.938270685411759</v>
       </c>
     </row>
     <row r="32" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G29</f>
         <v>12.28586899480047</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>19.928328804527261</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>23.264547350491039</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="23">
+        <v>24.833636346420704</v>
+      </c>
     </row>
     <row r="34" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G30</f>
         <v>20.108218753144943</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>29.541730495824083</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>35.464543119212848</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="23">
+        <v>34.313233407898444</v>
+      </c>
     </row>
     <row r="35" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G31</f>
         <v>23.688371085673879</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>31.242776068249537</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>39.252696413189447</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="23">
+        <v>38.165513651147549</v>
+      </c>
     </row>
     <row r="36" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G32</f>
         <v>28.405544890163778</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>36.901645917041535</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>39.606035508230384</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="23">
+        <v>41.587399018763371</v>
+      </c>
     </row>
     <row r="37" spans="1:7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>'[2]ЦУР_интернет,счет,трансп,безоп.'!G33</f>
         <v>32.674185644974685</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>38.816775959727927</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>46.669807444397421</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="24">
+        <v>46.108627653646344</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>88</v>
       </c>
     </row>

--- a/en/downloads/data-excel/8.10.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.xlsx
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +458,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,13 +513,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -547,12 +576,24 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal 17" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Обычный 7" xfId="2"/>
+    <cellStyle name="Обычный_ЦУР_интернет,счет,трансп,безоп." xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -8362,10 +8403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -8374,7 +8415,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8385,7 +8426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
@@ -8396,7 +8437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8404,8 +8445,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -8423,8 +8465,11 @@
       <c r="G4" s="11">
         <v>2021</v>
       </c>
+      <c r="H4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -8446,8 +8491,11 @@
       <c r="G5" s="19">
         <v>36.349477845730696</v>
       </c>
+      <c r="H5" s="26">
+        <v>39.085887468753405</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -8461,8 +8509,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -8484,8 +8533,11 @@
       <c r="G7" s="21">
         <v>40.24257514844215</v>
       </c>
+      <c r="H7" s="27">
+        <v>44.724599429278875</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -8507,8 +8559,11 @@
       <c r="G8" s="21">
         <v>33.921336844109675</v>
       </c>
+      <c r="H8" s="27">
+        <v>35.518984047032511</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>103</v>
       </c>
@@ -8522,8 +8577,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
@@ -8545,8 +8601,11 @@
       <c r="G10" s="21">
         <v>33.726935029287773</v>
       </c>
+      <c r="H10" s="27">
+        <v>36.217648533807413</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
@@ -8568,8 +8627,11 @@
       <c r="G11" s="21">
         <v>38.549213750749423</v>
       </c>
+      <c r="H11" s="27">
+        <v>41.476188409498668</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -8583,8 +8645,9 @@
       <c r="E12" s="7"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
@@ -8606,8 +8669,11 @@
       <c r="G13" s="21">
         <v>30.726355037053551</v>
       </c>
+      <c r="H13" s="27">
+        <v>32.430345873140155</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
@@ -8629,8 +8695,11 @@
       <c r="G14" s="21">
         <v>24.114348024597405</v>
       </c>
+      <c r="H14" s="27">
+        <v>30.944931541233412</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
@@ -8652,8 +8721,11 @@
       <c r="G15" s="21">
         <v>32.264319710486305</v>
       </c>
+      <c r="H15" s="27">
+        <v>38.701563892088878</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
@@ -8675,8 +8747,11 @@
       <c r="G16" s="21">
         <v>55.72775023394189</v>
       </c>
+      <c r="H16" s="27">
+        <v>58.238266620244111</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
@@ -8698,8 +8773,11 @@
       <c r="G17" s="21">
         <v>42.653948422610604</v>
       </c>
+      <c r="H17" s="27">
+        <v>43.927782365866996</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -8721,8 +8799,11 @@
       <c r="G18" s="21">
         <v>32.640370268550591</v>
       </c>
+      <c r="H18" s="27">
+        <v>40.137596093601282</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
@@ -8744,8 +8825,11 @@
       <c r="G19" s="21">
         <v>38.11437546852995</v>
       </c>
+      <c r="H19" s="27">
+        <v>32.977038227698955</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
@@ -8767,8 +8851,11 @@
       <c r="G20" s="21">
         <v>42.722516786024322</v>
       </c>
+      <c r="H20" s="27">
+        <v>44.695765304295406</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
@@ -8790,8 +8877,11 @@
       <c r="G21" s="21">
         <v>33.536910409231567</v>
       </c>
+      <c r="H21" s="27">
+        <v>44.154400809825894</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>104</v>
       </c>
@@ -8805,8 +8895,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
@@ -8828,8 +8919,11 @@
       <c r="G23" s="21">
         <v>16.180533854020734</v>
       </c>
+      <c r="H23" s="27">
+        <v>17.375254934967078</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>92</v>
       </c>
@@ -8851,8 +8945,11 @@
       <c r="G24" s="21">
         <v>37.684304521197163</v>
       </c>
+      <c r="H24" s="27">
+        <v>40.007538461760142</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>93</v>
       </c>
@@ -8874,8 +8971,11 @@
       <c r="G25" s="21">
         <v>63.542408521816817</v>
       </c>
+      <c r="H25" s="27">
+        <v>67.680040965166455</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -8889,8 +8989,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>70</v>
       </c>
@@ -8912,8 +9013,11 @@
       <c r="G27" s="21">
         <v>19.57846532512054</v>
       </c>
+      <c r="H27" s="27">
+        <v>23.074574656053066</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>71</v>
       </c>
@@ -8935,8 +9039,11 @@
       <c r="G28" s="21">
         <v>17.192246662674318</v>
       </c>
+      <c r="H28" s="27">
+        <v>18.330539129612006</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
@@ -8958,8 +9065,11 @@
       <c r="G29" s="21">
         <v>29.859967645408769</v>
       </c>
+      <c r="H29" s="27">
+        <v>33.251388568920724</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>73</v>
       </c>
@@ -8981,8 +9091,11 @@
       <c r="G30" s="21">
         <v>45.738415886705035</v>
       </c>
+      <c r="H30" s="27">
+        <v>48.411721058959479</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>74</v>
       </c>
@@ -9004,8 +9117,11 @@
       <c r="G31" s="21">
         <v>60.938270685411759</v>
       </c>
+      <c r="H31" s="27">
+        <v>62.326070295136923</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -9019,8 +9135,9 @@
       <c r="E32" s="8"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
+      <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
@@ -9043,8 +9160,11 @@
       <c r="G33" s="23">
         <v>24.833636346420704</v>
       </c>
+      <c r="H33" s="28">
+        <v>28.434754548564293</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
@@ -9067,8 +9187,11 @@
       <c r="G34" s="23">
         <v>34.313233407898444</v>
       </c>
+      <c r="H34" s="28">
+        <v>36.417518133414838</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
@@ -9091,8 +9214,11 @@
       <c r="G35" s="23">
         <v>38.165513651147549</v>
       </c>
+      <c r="H35" s="28">
+        <v>40.969804674762322</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
@@ -9115,8 +9241,11 @@
       <c r="G36" s="23">
         <v>41.587399018763371</v>
       </c>
+      <c r="H36" s="28">
+        <v>42.296454850254953</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -9139,8 +9268,11 @@
       <c r="G37" s="24">
         <v>46.108627653646344</v>
       </c>
+      <c r="H37" s="29">
+        <v>51.345982110084748</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>87</v>
       </c>

--- a/en/downloads/data-excel/8.10.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.xlsx
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,34 +458,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -513,14 +485,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -576,24 +547,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Normal 17" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Обычный 7" xfId="2"/>
-    <cellStyle name="Обычный_ЦУР_интернет,счет,трансп,безоп." xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -8403,10 +8362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -8415,7 +8374,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8426,7 +8385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
@@ -8437,7 +8396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8445,9 +8404,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -8465,11 +8423,8 @@
       <c r="G4" s="11">
         <v>2021</v>
       </c>
-      <c r="H4" s="25">
-        <v>2022</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -8491,11 +8446,8 @@
       <c r="G5" s="19">
         <v>36.349477845730696</v>
       </c>
-      <c r="H5" s="26">
-        <v>39.085887468753405</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -8509,9 +8461,8 @@
       <c r="E6" s="7"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -8533,11 +8484,8 @@
       <c r="G7" s="21">
         <v>40.24257514844215</v>
       </c>
-      <c r="H7" s="27">
-        <v>44.724599429278875</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -8559,11 +8507,8 @@
       <c r="G8" s="21">
         <v>33.921336844109675</v>
       </c>
-      <c r="H8" s="27">
-        <v>35.518984047032511</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>103</v>
       </c>
@@ -8577,9 +8522,8 @@
       <c r="E9" s="7"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
@@ -8601,11 +8545,8 @@
       <c r="G10" s="21">
         <v>33.726935029287773</v>
       </c>
-      <c r="H10" s="27">
-        <v>36.217648533807413</v>
-      </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
@@ -8627,11 +8568,8 @@
       <c r="G11" s="21">
         <v>38.549213750749423</v>
       </c>
-      <c r="H11" s="27">
-        <v>41.476188409498668</v>
-      </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -8645,9 +8583,8 @@
       <c r="E12" s="7"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
@@ -8669,11 +8606,8 @@
       <c r="G13" s="21">
         <v>30.726355037053551</v>
       </c>
-      <c r="H13" s="27">
-        <v>32.430345873140155</v>
-      </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
@@ -8695,11 +8629,8 @@
       <c r="G14" s="21">
         <v>24.114348024597405</v>
       </c>
-      <c r="H14" s="27">
-        <v>30.944931541233412</v>
-      </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
@@ -8721,11 +8652,8 @@
       <c r="G15" s="21">
         <v>32.264319710486305</v>
       </c>
-      <c r="H15" s="27">
-        <v>38.701563892088878</v>
-      </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
@@ -8747,11 +8675,8 @@
       <c r="G16" s="21">
         <v>55.72775023394189</v>
       </c>
-      <c r="H16" s="27">
-        <v>58.238266620244111</v>
-      </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
@@ -8773,11 +8698,8 @@
       <c r="G17" s="21">
         <v>42.653948422610604</v>
       </c>
-      <c r="H17" s="27">
-        <v>43.927782365866996</v>
-      </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -8799,11 +8721,8 @@
       <c r="G18" s="21">
         <v>32.640370268550591</v>
       </c>
-      <c r="H18" s="27">
-        <v>40.137596093601282</v>
-      </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
@@ -8825,11 +8744,8 @@
       <c r="G19" s="21">
         <v>38.11437546852995</v>
       </c>
-      <c r="H19" s="27">
-        <v>32.977038227698955</v>
-      </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
@@ -8851,11 +8767,8 @@
       <c r="G20" s="21">
         <v>42.722516786024322</v>
       </c>
-      <c r="H20" s="27">
-        <v>44.695765304295406</v>
-      </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
@@ -8877,11 +8790,8 @@
       <c r="G21" s="21">
         <v>33.536910409231567</v>
       </c>
-      <c r="H21" s="27">
-        <v>44.154400809825894</v>
-      </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>104</v>
       </c>
@@ -8895,9 +8805,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
@@ -8919,11 +8828,8 @@
       <c r="G23" s="21">
         <v>16.180533854020734</v>
       </c>
-      <c r="H23" s="27">
-        <v>17.375254934967078</v>
-      </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>92</v>
       </c>
@@ -8945,11 +8851,8 @@
       <c r="G24" s="21">
         <v>37.684304521197163</v>
       </c>
-      <c r="H24" s="27">
-        <v>40.007538461760142</v>
-      </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>93</v>
       </c>
@@ -8971,11 +8874,8 @@
       <c r="G25" s="21">
         <v>63.542408521816817</v>
       </c>
-      <c r="H25" s="27">
-        <v>67.680040965166455</v>
-      </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -8989,9 +8889,8 @@
       <c r="E26" s="7"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>70</v>
       </c>
@@ -9013,11 +8912,8 @@
       <c r="G27" s="21">
         <v>19.57846532512054</v>
       </c>
-      <c r="H27" s="27">
-        <v>23.074574656053066</v>
-      </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>71</v>
       </c>
@@ -9039,11 +8935,8 @@
       <c r="G28" s="21">
         <v>17.192246662674318</v>
       </c>
-      <c r="H28" s="27">
-        <v>18.330539129612006</v>
-      </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
@@ -9065,11 +8958,8 @@
       <c r="G29" s="21">
         <v>29.859967645408769</v>
       </c>
-      <c r="H29" s="27">
-        <v>33.251388568920724</v>
-      </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>73</v>
       </c>
@@ -9091,11 +8981,8 @@
       <c r="G30" s="21">
         <v>45.738415886705035</v>
       </c>
-      <c r="H30" s="27">
-        <v>48.411721058959479</v>
-      </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>74</v>
       </c>
@@ -9117,11 +9004,8 @@
       <c r="G31" s="21">
         <v>60.938270685411759</v>
       </c>
-      <c r="H31" s="27">
-        <v>62.326070295136923</v>
-      </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -9135,9 +9019,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
@@ -9160,11 +9043,8 @@
       <c r="G33" s="23">
         <v>24.833636346420704</v>
       </c>
-      <c r="H33" s="28">
-        <v>28.434754548564293</v>
-      </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
@@ -9187,11 +9067,8 @@
       <c r="G34" s="23">
         <v>34.313233407898444</v>
       </c>
-      <c r="H34" s="28">
-        <v>36.417518133414838</v>
-      </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
@@ -9214,11 +9091,8 @@
       <c r="G35" s="23">
         <v>38.165513651147549</v>
       </c>
-      <c r="H35" s="28">
-        <v>40.969804674762322</v>
-      </c>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
@@ -9241,11 +9115,8 @@
       <c r="G36" s="23">
         <v>41.587399018763371</v>
       </c>
-      <c r="H36" s="28">
-        <v>42.296454850254953</v>
-      </c>
     </row>
-    <row r="37" spans="1:8" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -9268,11 +9139,8 @@
       <c r="G37" s="24">
         <v>46.108627653646344</v>
       </c>
-      <c r="H37" s="29">
-        <v>51.345982110084748</v>
-      </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>87</v>
       </c>

--- a/en/downloads/data-excel/8.10.2.xlsx
+++ b/en/downloads/data-excel/8.10.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>(в процентах)</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>По образованию</t>
+  </si>
+  <si>
+    <t>Көрсөткүчтөрдүн аталышы</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,28 +465,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -518,9 +516,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -561,9 +559,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -579,13 +574,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8403,19 +8397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="46" style="2" customWidth="1"/>
+    <col min="1" max="3" width="44" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8426,7 +8418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
@@ -8437,7 +8429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8446,13 +8438,18 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D4" s="11">
         <v>2018</v>
       </c>
@@ -8465,11 +8462,14 @@
       <c r="G4" s="11">
         <v>2021</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>2022</v>
       </c>
+      <c r="I4" s="24">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
@@ -8485,17 +8485,20 @@
       <c r="E5" s="12">
         <v>32.172358685186744</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>35.908367432390172</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>36.349477845730696</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="18">
         <v>39.085887468753405</v>
       </c>
+      <c r="I5" s="18">
+        <v>45.949580055212706</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
@@ -8507,11 +8510,12 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -8527,17 +8531,20 @@
       <c r="E7" s="13">
         <v>36.79711906049684</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>38.037471336879918</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>40.24257514844215</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="21">
         <v>44.724599429278875</v>
       </c>
+      <c r="I7" s="21">
+        <v>50.315128678474018</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -8553,17 +8560,20 @@
       <c r="E8" s="13">
         <v>29.421488728670735</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>34.606561282937008</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>33.921336844109675</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="21">
         <v>35.518984047032511</v>
       </c>
+      <c r="I8" s="21">
+        <v>43.219999170895854</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>103</v>
       </c>
@@ -8575,11 +8585,12 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
@@ -8595,17 +8606,20 @@
       <c r="E10" s="13">
         <v>30.211973610676601</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>33.229388395505211</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>33.726935029287773</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="21">
         <v>36.217648533807413</v>
       </c>
+      <c r="I10" s="21">
+        <v>44.415417641633219</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
@@ -8621,17 +8635,20 @@
       <c r="E11" s="13">
         <v>33.807907890915992</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>38.177301011395421</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>38.549213750749423</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="21">
         <v>41.476188409498668</v>
       </c>
+      <c r="I11" s="21">
+        <v>47.251391232382026</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
@@ -8643,11 +8660,12 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>41</v>
       </c>
@@ -8663,17 +8681,20 @@
       <c r="E13" s="13">
         <v>20.274736118054363</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>26.775957440605431</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>30.726355037053551</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="21">
         <v>32.430345873140155</v>
       </c>
+      <c r="I13" s="21">
+        <v>41.667810195049299</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
@@ -8689,17 +8710,20 @@
       <c r="E14" s="13">
         <v>26.361287264420636</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>26.539366314899116</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>24.114348024597405</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="21">
         <v>30.944931541233412</v>
       </c>
+      <c r="I14" s="21">
+        <v>41.486441621675908</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
@@ -8715,17 +8739,20 @@
       <c r="E15" s="13">
         <v>9.9730738786285968</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>27.245676841206855</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>32.264319710486305</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="21">
         <v>38.701563892088878</v>
       </c>
+      <c r="I15" s="21">
+        <v>52.909628957776725</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
@@ -8741,17 +8768,20 @@
       <c r="E16" s="13">
         <v>43.200633690782439</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>40.824543038051686</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>55.72775023394189</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <v>58.238266620244111</v>
       </c>
+      <c r="I16" s="21">
+        <v>62.574019909498347</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
@@ -8767,17 +8797,20 @@
       <c r="E17" s="13">
         <v>37.460736598863278</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>43.889457566749421</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>42.653948422610604</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="21">
         <v>43.927782365866996</v>
       </c>
+      <c r="I17" s="21">
+        <v>50.089746706331191</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
@@ -8793,17 +8826,20 @@
       <c r="E18" s="13">
         <v>32.044373123720973</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>33.277755977391323</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>32.640370268550591</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="21">
         <v>40.137596093601282</v>
       </c>
+      <c r="I18" s="21">
+        <v>44.864451548602972</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
@@ -8819,17 +8855,20 @@
       <c r="E19" s="13">
         <v>41.21346354854434</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>43.885817661904994</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>38.11437546852995</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="21">
         <v>32.977038227698955</v>
       </c>
+      <c r="I19" s="21">
+        <v>35.967162950905177</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
@@ -8845,17 +8884,20 @@
       <c r="E20" s="13">
         <v>34.961164011412258</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>38.853902927830582</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>42.722516786024322</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="21">
         <v>44.695765304295406</v>
       </c>
+      <c r="I20" s="21">
+        <v>47.2422482593567</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>65</v>
       </c>
@@ -8871,17 +8913,20 @@
       <c r="E21" s="13">
         <v>40.128113657196543</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>31.952316608549769</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>33.536910409231567</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="21">
         <v>44.154400809825894</v>
       </c>
+      <c r="I21" s="21">
+        <v>57.053084433540945</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>104</v>
       </c>
@@ -8893,11 +8938,12 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
@@ -8913,17 +8959,20 @@
       <c r="E23" s="13">
         <v>16.408319566373308</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>18.496813928180543</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>16.180533854020734</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="21">
         <v>17.375254934967078</v>
       </c>
+      <c r="I23" s="21">
+        <v>23.872922810126894</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>92</v>
       </c>
@@ -8939,17 +8988,20 @@
       <c r="E24" s="13">
         <v>33.477733177366297</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>37.033088177002874</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>37.684304521197163</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="21">
         <v>40.007538461760142</v>
       </c>
+      <c r="I24" s="21">
+        <v>48.27741695137928</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>93</v>
       </c>
@@ -8965,17 +9017,20 @@
       <c r="E25" s="13">
         <v>55.192243744535141</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>59.619519274425237</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>63.542408521816817</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="21">
         <v>67.680040965166455</v>
       </c>
+      <c r="I25" s="21">
+        <v>69.7146568327408</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -8987,11 +9042,12 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>70</v>
       </c>
@@ -9007,17 +9063,20 @@
       <c r="E27" s="13">
         <v>25.253959375234832</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>24.636899175670234</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>19.57846532512054</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="21">
         <v>23.074574656053066</v>
       </c>
+      <c r="I27" s="21">
+        <v>21.77710692964105</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>71</v>
       </c>
@@ -9033,17 +9092,20 @@
       <c r="E28" s="13">
         <v>15.506281254828457</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>18.134313129213993</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>17.192246662674318</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="21">
         <v>18.330539129612006</v>
       </c>
+      <c r="I28" s="21">
+        <v>24.756440351891371</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>72</v>
       </c>
@@ -9059,17 +9121,20 @@
       <c r="E29" s="13">
         <v>25.60731048820081</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>29.738080926096469</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>29.859967645408769</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="21">
         <v>33.251388568920724</v>
       </c>
+      <c r="I29" s="21">
+        <v>41.781082603975655</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>73</v>
       </c>
@@ -9085,17 +9150,20 @@
       <c r="E30" s="13">
         <v>39.576314116351028</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>44.647996803123462</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>45.738415886705035</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="21">
         <v>48.411721058959479</v>
       </c>
+      <c r="I30" s="21">
+        <v>55.952587531016164</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>74</v>
       </c>
@@ -9111,17 +9179,20 @@
       <c r="E31" s="13">
         <v>54.556962383083601</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>57.646115925877957</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>60.938270685411759</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="21">
         <v>62.326070295136923</v>
       </c>
+      <c r="I31" s="21">
+        <v>65.760347501612472</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -9133,11 +9204,12 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="28"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
@@ -9154,17 +9226,20 @@
       <c r="E33" s="9">
         <v>19.928328804527261</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>23.264547350491039</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>24.833636346420704</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="26">
         <v>28.434754548564293</v>
       </c>
+      <c r="I33" s="26">
+        <v>36.943115111698582</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
@@ -9181,17 +9256,20 @@
       <c r="E34" s="9">
         <v>29.541730495824083</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>35.464543119212848</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>34.313233407898444</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="26">
         <v>36.417518133414838</v>
       </c>
+      <c r="I34" s="26">
+        <v>43.758492476090815</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
@@ -9208,17 +9286,20 @@
       <c r="E35" s="9">
         <v>31.242776068249537</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>39.252696413189447</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>38.165513651147549</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="26">
         <v>40.969804674762322</v>
       </c>
+      <c r="I35" s="26">
+        <v>45.502117000636005</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
@@ -9235,17 +9316,20 @@
       <c r="E36" s="9">
         <v>36.901645917041535</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>39.606035508230384</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>41.587399018763371</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="26">
         <v>42.296454850254953</v>
       </c>
+      <c r="I36" s="26">
+        <v>47.36993563223902</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -9262,29 +9346,32 @@
       <c r="E37" s="10">
         <v>38.816775959727927</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>46.669807444397421</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>46.108627653646344</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="25">
         <v>51.345982110084748</v>
       </c>
+      <c r="I37" s="25">
+        <v>52.665872825774791</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="27" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>